--- a/biology/Botanique/Beurré_Dubuisson/Beurré_Dubuisson.xlsx
+++ b/biology/Botanique/Beurré_Dubuisson/Beurré_Dubuisson.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dubuisson</t>
+          <t>Beurré_Dubuisson</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">‘Beurré Dubuisson’ est une variété de poire de table d'origine belge.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dubuisson</t>
+          <t>Beurré_Dubuisson</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,9 +523,11 @@
           <t>Origine</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le fruit est obtenu en 1872 par Isidore Dubuisson, jardinier à Jollain, près de Tournai (Belgique)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le fruit est obtenu en 1872 par Isidore Dubuisson, jardinier à Jollain, près de Tournai (Belgique).
 </t>
         </is>
       </c>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dubuisson</t>
+          <t>Beurré_Dubuisson</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,13 +556,15 @@
           <t>Fruit</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Assez gros, oblong, tronqué à la base, bosselé dans son pourtour, un peu côtelé à la base[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Assez gros, oblong, tronqué à la base, bosselé dans son pourtour, un peu côtelé à la base.
 Épiderme jaune, fortement pointillé de rouille, marbré de fauve, parfois lavé de rouge du côté du soleil.
 Pédicelle court, assez fort, droit, implanté obliquement dans une petite cavité plissée.
 Œil petit, fermé, inséré dans une cavité de profondeur moyenne, côtelée sur les bords.
-Chair blanchâtre, fine, serrée, fondante, beurrée, bien juteuse, très finement sucrée, acidulée, agréablement parfumée[1].
+Chair blanchâtre, fine, serrée, fondante, beurrée, bien juteuse, très finement sucrée, acidulée, agréablement parfumée.
 </t>
         </is>
       </c>
@@ -559,7 +575,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Beurr%C3%A9_Dubuisson</t>
+          <t>Beurré_Dubuisson</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -577,15 +593,87 @@
           <t>Culture</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">Cette variété est surtout destinée aux formes palissées, étant donné sa végétation un peu faible.
 Greffée sur franc ou cognassier, elle sera plantée dans un terrain sain et chaud, à bonne exposition. Une taille courte doit être appliquée.
-C'est un fruit d'amateur, peu sujet à la tavelure[1].
-Date de récolte
-Octobre à décembre, suivant les régions.
-Date de maturité
-Décembre-février[1].
+C'est un fruit d'amateur, peu sujet à la tavelure.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Beurré_Dubuisson</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Dubuisson</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Date de récolte</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Octobre à décembre, suivant les régions.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Beurré_Dubuisson</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Beurr%C3%A9_Dubuisson</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Culture</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Date de maturité</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Décembre-février.
 </t>
         </is>
       </c>
